--- a/aspnet-core/src/GYISMS.Web.Host/wwwroot/files/downloadtemp/任务明细.xlsx
+++ b/aspnet-core/src/GYISMS.Web.Host/wwwroot/files/downloadtemp/任务明细.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="45">
   <si>
     <t xml:space="preserve">区域</t>
   </si>
   <si>
+    <t xml:space="preserve">计划名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">计划时间</t>
+  </si>
+  <si>
     <t xml:space="preserve">任务名</t>
   </si>
   <si>
@@ -44,6 +50,12 @@
     <t xml:space="preserve">昭化区</t>
   </si>
   <si>
+    <t xml:space="preserve">栽种计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-23至2018-09-23</t>
+  </si>
+  <si>
     <t xml:space="preserve">移栽</t>
   </si>
   <si>
@@ -53,6 +65,9 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">已完成</t>
   </si>
   <si>
@@ -62,9 +77,6 @@
     <t xml:space="preserve">邢国华</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">未开始</t>
   </si>
   <si>
@@ -80,6 +92,9 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
+    <t xml:space="preserve">2018-09-10至2018-09-16</t>
+  </si>
+  <si>
     <t xml:space="preserve">除草</t>
   </si>
   <si>
@@ -92,9 +107,27 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
+    <t xml:space="preserve">正式测试计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-09-10至2018-09-10</t>
+  </si>
+  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
+    <t xml:space="preserve">测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-08至2018-10-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donald测试计划</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-01至2018-10-31</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
@@ -104,13 +137,16 @@
     <t xml:space="preserve">旺苍县</t>
   </si>
   <si>
+    <t xml:space="preserve">夏世林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白嘉轩</t>
+  </si>
+  <si>
     <t xml:space="preserve">陈巍</t>
   </si>
   <si>
     <t xml:space="preserve">鹿子霖</t>
-  </si>
-  <si>
-    <t xml:space="preserve">白嘉轩</t>
   </si>
 </sst>
 </file>
@@ -197,572 +233,837 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2"/>
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="F3"/>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="K6" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B7"/>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7"/>
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B8"/>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8"/>
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11"/>
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>15</v>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13"/>
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
         <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
         <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16"/>
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
       <c r="G16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" t="s">
-        <v>32</v>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="J18" t="s">
         <v>22</v>
       </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" t="s">
-        <v>31</v>
+      <c r="K18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19"/>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
-        <v>32</v>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
         <v>29</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" t="s">
-        <v>31</v>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21"/>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" t="s">
-        <v>32</v>
+      <c r="J21" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
         <v>29</v>
       </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="J23" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="E22" t="s">
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
         <v>16</v>
       </c>
-      <c r="F22"/>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" t="s">
-        <v>31</v>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/aspnet-core/src/GYISMS.Web.Host/wwwroot/files/downloadtemp/任务明细.xlsx
+++ b/aspnet-core/src/GYISMS.Web.Host/wwwroot/files/downloadtemp/任务明细.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t xml:space="preserve">区域</t>
   </si>
@@ -50,10 +50,37 @@
     <t xml:space="preserve">昭化区</t>
   </si>
   <si>
-    <t xml:space="preserve">测试</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-08至2018-10-14</t>
+    <t xml:space="preserve">普通任务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-02-20至2019-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打赢脱贫攻坚战</t>
+  </si>
+  <si>
+    <t xml:space="preserve">政策宣传</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">未开始</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唐德舟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邢国华</t>
+  </si>
+  <si>
+    <t xml:space="preserve">面积落实</t>
+  </si>
+  <si>
+    <t xml:space="preserve">已完成</t>
   </si>
   <si>
     <t xml:space="preserve">浇水</t>
@@ -62,52 +89,58 @@
     <t xml:space="preserve">技术服务</t>
   </si>
   <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">未开始</t>
-  </si>
-  <si>
-    <t xml:space="preserve">杨帆</t>
-  </si>
-  <si>
-    <t xml:space="preserve">沈星移</t>
-  </si>
-  <si>
-    <t xml:space="preserve">唐德舟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">邢国华</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donald测试计划</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-01至2018-10-31</t>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">进行中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">移栽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旺苍任务</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-03-01至2019-03-31</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">已完成</t>
-  </si>
-  <si>
-    <t xml:space="preserve">移栽</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">进行中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">除草</t>
+    <t xml:space="preserve">王晓雪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鹿子霖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">旺苍县</t>
+  </si>
+  <si>
+    <t xml:space="preserve">行政部测试</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">生产管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吴呈晓</t>
+  </si>
+  <si>
+    <t xml:space="preserve">风清扬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">物资发放	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">夏世林</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白嘉轩</t>
   </si>
 </sst>
 </file>
@@ -247,28 +280,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -276,34 +309,34 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -311,34 +344,34 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -346,34 +379,139 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>22</v>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
